--- a/biology/Biologie cellulaire et moléculaire/RBP4/RBP4.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/RBP4/RBP4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le RBP4 (« retinol binding protein 4 ») est une protéine assurant le transport de la vitamine A (appelée également rétinol).
 </t>
@@ -511,12 +523,14 @@
           <t>Rôle et régulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre son rôle de transport de la vitamine A, elle contribue à l'obésité chez le diabétique de type 2, et ceci même chez l'enfant[1]. L'augmentation de son expression est responsable d'une résistance à l'insuline[2] et est retrouvée en cas de diabète de type 2[3]. Un taux élevé semble être corrélé avec l'existence d'un prédiabète[4]. 
-Cette protéine joue un rôle dans l'inflammation[5].
-L'estradiol semble augmenter la production de RBP4 in vitro, ce qui pourrait expliquer le taux augmenté retrouvé chez les femmes porteuses d'un syndrome de Stein-Leventhal (ovaires polykystiques)[6].
-Son rôle dans l'athérome est suspecté : son taux est corrélé avec un index d'athérome carotidien[7] et avec le risque de survenue de maladies cardiovasculaires, du moins chez la femme[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre son rôle de transport de la vitamine A, elle contribue à l'obésité chez le diabétique de type 2, et ceci même chez l'enfant. L'augmentation de son expression est responsable d'une résistance à l'insuline et est retrouvée en cas de diabète de type 2. Un taux élevé semble être corrélé avec l'existence d'un prédiabète. 
+Cette protéine joue un rôle dans l'inflammation.
+L'estradiol semble augmenter la production de RBP4 in vitro, ce qui pourrait expliquer le taux augmenté retrouvé chez les femmes porteuses d'un syndrome de Stein-Leventhal (ovaires polykystiques).
+Son rôle dans l'athérome est suspecté : son taux est corrélé avec un index d'athérome carotidien et avec le risque de survenue de maladies cardiovasculaires, du moins chez la femme.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Interventions thérapeutiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son taux est diminué en cas de prise de rosiglitazone[2], un antidiabétique oral, depuis abandonné en raison de ses effets secondaires, mais pas par la prise de pioglitazone[9]. 
-Sa concentration diminue également en cas d'amaigrissement[10],[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son taux est diminué en cas de prise de rosiglitazone, un antidiabétique oral, depuis abandonné en raison de ses effets secondaires, mais pas par la prise de pioglitazone. 
+Sa concentration diminue également en cas d'amaigrissement,. 
 </t>
         </is>
       </c>
